--- a/Uni-Tasks/src/Task-3/output.xlsx
+++ b/Uni-Tasks/src/Task-3/output.xlsx
@@ -1590,13 +1590,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1</c:v>
@@ -1614,7 +1614,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.3</c:v>
@@ -1626,16 +1626,16 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.5</c:v>
@@ -1653,31 +1653,31 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,40 +1870,40 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.3</c:v>
@@ -1912,7 +1912,7 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.5</c:v>
@@ -1924,34 +1924,34 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.9</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2156,16 +2156,16 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
@@ -2177,7 +2177,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.3</c:v>
@@ -2201,31 +2201,31 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.8</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2412,25 +2412,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1</c:v>
@@ -2439,7 +2439,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.3</c:v>
@@ -2487,10 +2487,10 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.9</c:v>
@@ -2499,7 +2499,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,7 +2692,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1</c:v>
@@ -2704,7 +2704,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1</c:v>
@@ -2713,7 +2713,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.1</c:v>
@@ -2722,10 +2722,10 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.1</c:v>
@@ -2743,16 +2743,16 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.3</c:v>
@@ -2770,7 +2770,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.5</c:v>
@@ -2969,7 +2969,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2984,19 +2984,19 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.3</c:v>
@@ -3005,7 +3005,7 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.4</c:v>
@@ -3017,7 +3017,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.6</c:v>
@@ -3029,13 +3029,13 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1</c:v>
@@ -3237,13 +3237,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
@@ -3261,10 +3261,10 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.3</c:v>
@@ -3276,13 +3276,13 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.5</c:v>
@@ -3294,7 +3294,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.6</c:v>
@@ -3303,13 +3303,13 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.8</c:v>
@@ -3318,10 +3318,10 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3785,7 +3785,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3797,7 +3797,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.1</c:v>
@@ -3824,13 +3824,13 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.2</c:v>
@@ -3839,22 +3839,22 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.4</c:v>
@@ -3863,13 +3863,13 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4062,10 +4062,10 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
@@ -4080,10 +4080,10 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
@@ -4095,7 +4095,7 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.3</c:v>
@@ -4104,13 +4104,13 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.4</c:v>
@@ -4119,7 +4119,7 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.5</c:v>
@@ -4134,7 +4134,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.6</c:v>
@@ -4143,7 +4143,7 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4333,13 +4333,13 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
@@ -4351,28 +4351,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.2</c:v>
@@ -4381,28 +4381,28 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.2</c:v>
@@ -4411,7 +4411,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.3</c:v>
@@ -4610,13 +4610,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1</c:v>
@@ -4625,13 +4625,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.1</c:v>
@@ -4640,7 +4640,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -4649,7 +4649,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.1</c:v>
@@ -4658,22 +4658,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.1</c:v>
@@ -4682,16 +4682,16 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4878,10 +4878,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -4893,7 +4893,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.1</c:v>
@@ -4902,7 +4902,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.1</c:v>
@@ -4911,13 +4911,13 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.2</c:v>
@@ -4926,43 +4926,43 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.6</c:v>
@@ -13417,7 +13417,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
         <f>MID(B2,5,1)</f>
@@ -13447,7 +13447,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>MID(B4,5,1)</f>
@@ -13537,7 +13537,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
         <f>MID(B10,5,1)</f>
@@ -13597,7 +13597,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
         <f>MID(B14,5,2)</f>
@@ -13612,7 +13612,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
         <f>MID(B15,5,2)</f>
@@ -13642,7 +13642,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
         <f>MID(B17,5,2)</f>
@@ -13732,7 +13732,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D23">
         <f>MID(B23,5,2)</f>
@@ -13747,7 +13747,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D24">
         <f>MID(B24,5,2)</f>
@@ -13762,7 +13762,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D25">
         <f>MID(B25,5,2)</f>
@@ -13777,7 +13777,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="D26">
         <f>MID(B26,5,2)</f>
@@ -13792,7 +13792,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D27">
         <f>MID(B27,5,2)</f>
@@ -13807,7 +13807,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="D28">
         <f>MID(B28,5,2)</f>
@@ -13822,7 +13822,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="D29">
         <f>MID(B29,5,2)</f>
@@ -13837,7 +13837,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="D30">
         <f>MID(B30,5,2)</f>
@@ -13852,7 +13852,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f>MID(B31,5,2)</f>
@@ -13897,7 +13897,7 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D34">
         <f>MID(B34,5,1)</f>
@@ -13927,7 +13927,7 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D36">
         <f>MID(B36,5,1)</f>
@@ -13957,7 +13957,7 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D38">
         <f>MID(B38,5,1)</f>
@@ -13987,7 +13987,7 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D40">
         <f>MID(B40,5,1)</f>
@@ -14002,7 +14002,7 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D41">
         <f>MID(B41,5,2)</f>
@@ -14017,7 +14017,7 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D42">
         <f>MID(B42,5,2)</f>
@@ -14047,7 +14047,7 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D44">
         <f>MID(B44,5,2)</f>
@@ -14062,7 +14062,7 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D45">
         <f>MID(B45,5,2)</f>
@@ -14107,7 +14107,7 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D48">
         <f>MID(B48,5,2)</f>
@@ -14167,7 +14167,7 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D52">
         <f>MID(B52,5,2)</f>
@@ -14182,7 +14182,7 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D53">
         <f>MID(B53,5,2)</f>
@@ -14197,7 +14197,7 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D54">
         <f>MID(B54,5,2)</f>
@@ -14212,7 +14212,7 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D55">
         <f>MID(B55,5,2)</f>
@@ -14227,7 +14227,7 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D56">
         <f>MID(B56,5,2)</f>
@@ -14242,7 +14242,7 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D57">
         <f>MID(B57,5,2)</f>
@@ -14257,7 +14257,7 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D58">
         <f>MID(B58,5,2)</f>
@@ -14272,7 +14272,7 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D59">
         <f>MID(B59,5,2)</f>
@@ -14287,7 +14287,7 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D60">
         <f>MID(B60,5,2)</f>
@@ -14302,7 +14302,7 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="D61">
         <f>MID(B61,5,2)</f>
@@ -14407,7 +14407,7 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D68">
         <f>MID(B68,5,1)</f>
@@ -14422,7 +14422,7 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D69">
         <f>MID(B69,5,1)</f>
@@ -14452,7 +14452,7 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D71">
         <f>MID(B71,5,2)</f>
@@ -14512,7 +14512,7 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D75">
         <f>MID(B75,5,2)</f>
@@ -14632,7 +14632,7 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D83">
         <f>MID(B83,5,2)</f>
@@ -14647,7 +14647,7 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D84">
         <f>MID(B84,5,2)</f>
@@ -14662,7 +14662,7 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D85">
         <f>MID(B85,5,2)</f>
@@ -14677,7 +14677,7 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D86">
         <f>MID(B86,5,2)</f>
@@ -14692,7 +14692,7 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D87">
         <f>MID(B87,5,2)</f>
@@ -14707,7 +14707,7 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D88">
         <f>MID(B88,5,2)</f>
@@ -14722,7 +14722,7 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D89">
         <f>MID(B89,5,2)</f>
@@ -14737,7 +14737,7 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D90">
         <f>MID(B90,5,2)</f>
@@ -14752,7 +14752,7 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="D91">
         <f>MID(B91,5,2)</f>
@@ -14767,7 +14767,7 @@
         <v>5</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D92">
         <f>MID(B92,5,1)</f>
@@ -14782,7 +14782,7 @@
         <v>6</v>
       </c>
       <c r="C93">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <f>MID(B93,5,1)</f>
@@ -14812,7 +14812,7 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D95">
         <f>MID(B95,5,1)</f>
@@ -14842,7 +14842,7 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D97">
         <f>MID(B97,5,1)</f>
@@ -14857,7 +14857,7 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D98">
         <f>MID(B98,5,1)</f>
@@ -14902,7 +14902,7 @@
         <v>14</v>
       </c>
       <c r="C101">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D101">
         <f>MID(B101,5,2)</f>
@@ -15142,7 +15142,7 @@
         <v>30</v>
       </c>
       <c r="C117">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D117">
         <f>MID(B117,5,2)</f>
@@ -15157,7 +15157,7 @@
         <v>31</v>
       </c>
       <c r="C118">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D118">
         <f>MID(B118,5,2)</f>
@@ -15202,7 +15202,7 @@
         <v>34</v>
       </c>
       <c r="C121">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D121">
         <f>MID(B121,5,2)</f>
@@ -15247,7 +15247,7 @@
         <v>38</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D124">
         <f>MID(B124,5,1)</f>
@@ -15307,7 +15307,7 @@
         <v>42</v>
       </c>
       <c r="C128">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <f>MID(B128,5,1)</f>
@@ -15352,7 +15352,7 @@
         <v>45</v>
       </c>
       <c r="C131">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D131">
         <f>MID(B131,5,2)</f>
@@ -15397,7 +15397,7 @@
         <v>48</v>
       </c>
       <c r="C134">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D134">
         <f>MID(B134,5,2)</f>
@@ -15412,7 +15412,7 @@
         <v>49</v>
       </c>
       <c r="C135">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D135">
         <f>MID(B135,5,2)</f>
@@ -15502,7 +15502,7 @@
         <v>55</v>
       </c>
       <c r="C141">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D141">
         <f>MID(B141,5,2)</f>
@@ -15517,7 +15517,7 @@
         <v>56</v>
       </c>
       <c r="C142">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D142">
         <f>MID(B142,5,2)</f>
@@ -15547,7 +15547,7 @@
         <v>58</v>
       </c>
       <c r="C144">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D144">
         <f>MID(B144,5,2)</f>
@@ -15637,7 +15637,7 @@
         <v>64</v>
       </c>
       <c r="C150">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D150">
         <f>MID(B150,5,2)</f>
@@ -15712,7 +15712,7 @@
         <v>69</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D155">
         <f>MID(B155,5,1)</f>
@@ -15787,7 +15787,7 @@
         <v>74</v>
       </c>
       <c r="C160">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D160">
         <f>MID(B160,5,1)</f>
@@ -15817,7 +15817,7 @@
         <v>76</v>
       </c>
       <c r="C162">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D162">
         <f>MID(B162,5,2)</f>
@@ -15847,7 +15847,7 @@
         <v>78</v>
       </c>
       <c r="C164">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D164">
         <f>MID(B164,5,2)</f>
@@ -15892,7 +15892,7 @@
         <v>81</v>
       </c>
       <c r="C167">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D167">
         <f>MID(B167,5,2)</f>
@@ -15952,7 +15952,7 @@
         <v>85</v>
       </c>
       <c r="C171">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D171">
         <f>MID(B171,5,2)</f>
@@ -16012,7 +16012,7 @@
         <v>89</v>
       </c>
       <c r="C175">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D175">
         <f>MID(B175,5,2)</f>
@@ -16042,7 +16042,7 @@
         <v>91</v>
       </c>
       <c r="C177">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <f>MID(B177,5,2)</f>
@@ -16132,7 +16132,7 @@
         <v>6</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D183">
         <f>MID(B183,5,1)</f>
@@ -16162,7 +16162,7 @@
         <v>8</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D185">
         <f>MID(B185,5,1)</f>
@@ -16252,7 +16252,7 @@
         <v>14</v>
       </c>
       <c r="C191">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D191">
         <f>MID(B191,5,2)</f>
@@ -16267,7 +16267,7 @@
         <v>15</v>
       </c>
       <c r="C192">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D192">
         <f>MID(B192,5,2)</f>
@@ -16327,7 +16327,7 @@
         <v>19</v>
       </c>
       <c r="C196">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D196">
         <f>MID(B196,5,2)</f>
@@ -16357,7 +16357,7 @@
         <v>21</v>
       </c>
       <c r="C198">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D198">
         <f>MID(B198,5,2)</f>
@@ -16417,7 +16417,7 @@
         <v>25</v>
       </c>
       <c r="C202">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D202">
         <f>MID(B202,5,2)</f>
@@ -16462,7 +16462,7 @@
         <v>28</v>
       </c>
       <c r="C205">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D205">
         <f>MID(B205,5,2)</f>
@@ -16477,7 +16477,7 @@
         <v>29</v>
       </c>
       <c r="C206">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D206">
         <f>MID(B206,5,2)</f>
@@ -16492,7 +16492,7 @@
         <v>30</v>
       </c>
       <c r="C207">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D207">
         <f>MID(B207,5,2)</f>
@@ -16537,7 +16537,7 @@
         <v>33</v>
       </c>
       <c r="C210">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D210">
         <f>MID(B210,5,2)</f>
@@ -16552,7 +16552,7 @@
         <v>34</v>
       </c>
       <c r="C211">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D211">
         <f>MID(B211,5,2)</f>
@@ -16582,7 +16582,7 @@
         <v>37</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D213">
         <f>MID(B213,5,1)</f>
@@ -16642,7 +16642,7 @@
         <v>41</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D217">
         <f>MID(B217,5,1)</f>
@@ -16777,7 +16777,7 @@
         <v>50</v>
       </c>
       <c r="C226">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D226">
         <f>MID(B226,5,2)</f>
@@ -16792,7 +16792,7 @@
         <v>51</v>
       </c>
       <c r="C227">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D227">
         <f>MID(B227,5,2)</f>
@@ -16807,7 +16807,7 @@
         <v>52</v>
       </c>
       <c r="C228">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D228">
         <f>MID(B228,5,2)</f>
@@ -16852,7 +16852,7 @@
         <v>55</v>
       </c>
       <c r="C231">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D231">
         <f>MID(B231,5,2)</f>
@@ -16867,7 +16867,7 @@
         <v>56</v>
       </c>
       <c r="C232">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D232">
         <f>MID(B232,5,2)</f>
@@ -16897,7 +16897,7 @@
         <v>58</v>
       </c>
       <c r="C234">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D234">
         <f>MID(B234,5,2)</f>
@@ -16927,7 +16927,7 @@
         <v>60</v>
       </c>
       <c r="C236">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D236">
         <f>MID(B236,5,2)</f>
@@ -16972,7 +16972,7 @@
         <v>63</v>
       </c>
       <c r="C239">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D239">
         <f>MID(B239,5,2)</f>
@@ -16987,7 +16987,7 @@
         <v>64</v>
       </c>
       <c r="C240">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D240">
         <f>MID(B240,5,2)</f>
@@ -17002,7 +17002,7 @@
         <v>65</v>
       </c>
       <c r="C241">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D241">
         <f>MID(B241,5,2)</f>
@@ -17047,7 +17047,7 @@
         <v>68</v>
       </c>
       <c r="C244">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D244">
         <f>MID(B244,5,1)</f>
@@ -17062,7 +17062,7 @@
         <v>69</v>
       </c>
       <c r="C245">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D245">
         <f>MID(B245,5,1)</f>
@@ -17137,7 +17137,7 @@
         <v>74</v>
       </c>
       <c r="C250">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D250">
         <f>MID(B250,5,1)</f>
@@ -17152,7 +17152,7 @@
         <v>75</v>
       </c>
       <c r="C251">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D251">
         <f>MID(B251,5,2)</f>
@@ -17212,7 +17212,7 @@
         <v>79</v>
       </c>
       <c r="C255">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D255">
         <f>MID(B255,5,2)</f>
@@ -17257,7 +17257,7 @@
         <v>82</v>
       </c>
       <c r="C258">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D258">
         <f>MID(B258,5,2)</f>
@@ -17272,7 +17272,7 @@
         <v>83</v>
       </c>
       <c r="C259">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D259">
         <f>MID(B259,5,2)</f>
@@ -17287,7 +17287,7 @@
         <v>84</v>
       </c>
       <c r="C260">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D260">
         <f>MID(B260,5,2)</f>
@@ -17332,7 +17332,7 @@
         <v>87</v>
       </c>
       <c r="C263">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D263">
         <f>MID(B263,5,2)</f>
@@ -17407,7 +17407,7 @@
         <v>92</v>
       </c>
       <c r="C268">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D268">
         <f>MID(B268,5,2)</f>
@@ -17452,7 +17452,7 @@
         <v>95</v>
       </c>
       <c r="C271">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D271">
         <f>MID(B271,5,2)</f>
@@ -17482,7 +17482,7 @@
         <v>6</v>
       </c>
       <c r="C273">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D273">
         <f>MID(B273,5,1)</f>
@@ -17497,7 +17497,7 @@
         <v>7</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D274">
         <f>MID(B274,5,1)</f>
@@ -17512,7 +17512,7 @@
         <v>8</v>
       </c>
       <c r="C275">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D275">
         <f>MID(B275,5,1)</f>
@@ -17572,7 +17572,7 @@
         <v>12</v>
       </c>
       <c r="C279">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D279">
         <f>MID(B279,5,1)</f>
@@ -17587,7 +17587,7 @@
         <v>13</v>
       </c>
       <c r="C280">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D280">
         <f>MID(B280,5,1)</f>
@@ -17617,7 +17617,7 @@
         <v>15</v>
       </c>
       <c r="C282">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D282">
         <f>MID(B282,5,2)</f>
@@ -17632,7 +17632,7 @@
         <v>16</v>
       </c>
       <c r="C283">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D283">
         <f>MID(B283,5,2)</f>
@@ -17647,7 +17647,7 @@
         <v>17</v>
       </c>
       <c r="C284">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D284">
         <f>MID(B284,5,2)</f>
@@ -17677,7 +17677,7 @@
         <v>19</v>
       </c>
       <c r="C286">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D286">
         <f>MID(B286,5,2)</f>
@@ -17722,7 +17722,7 @@
         <v>22</v>
       </c>
       <c r="C289">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D289">
         <f>MID(B289,5,2)</f>
@@ -17737,7 +17737,7 @@
         <v>23</v>
       </c>
       <c r="C290">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D290">
         <f>MID(B290,5,2)</f>
@@ -17767,7 +17767,7 @@
         <v>25</v>
       </c>
       <c r="C292">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D292">
         <f>MID(B292,5,2)</f>
@@ -17797,7 +17797,7 @@
         <v>27</v>
       </c>
       <c r="C294">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D294">
         <f>MID(B294,5,2)</f>
@@ -17827,7 +17827,7 @@
         <v>29</v>
       </c>
       <c r="C296">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D296">
         <f>MID(B296,5,2)</f>
@@ -17872,7 +17872,7 @@
         <v>32</v>
       </c>
       <c r="C299">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D299">
         <f>MID(B299,5,2)</f>
@@ -17947,7 +17947,7 @@
         <v>38</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D304">
         <f>MID(B304,5,1)</f>
@@ -17977,7 +17977,7 @@
         <v>40</v>
       </c>
       <c r="C306">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D306">
         <f>MID(B306,5,1)</f>
@@ -18022,7 +18022,7 @@
         <v>43</v>
       </c>
       <c r="C309">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D309">
         <f>MID(B309,5,1)</f>
@@ -18037,7 +18037,7 @@
         <v>44</v>
       </c>
       <c r="C310">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D310">
         <f>MID(B310,5,1)</f>
@@ -18052,7 +18052,7 @@
         <v>45</v>
       </c>
       <c r="C311">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D311">
         <f>MID(B311,5,2)</f>
@@ -18097,7 +18097,7 @@
         <v>48</v>
       </c>
       <c r="C314">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D314">
         <f>MID(B314,5,2)</f>
@@ -18142,7 +18142,7 @@
         <v>51</v>
       </c>
       <c r="C317">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D317">
         <f>MID(B317,5,2)</f>
@@ -18187,7 +18187,7 @@
         <v>54</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D320">
         <f>MID(B320,5,2)</f>
@@ -18202,7 +18202,7 @@
         <v>55</v>
       </c>
       <c r="C321">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D321">
         <f>MID(B321,5,2)</f>
@@ -18232,7 +18232,7 @@
         <v>57</v>
       </c>
       <c r="C323">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D323">
         <f>MID(B323,5,2)</f>
@@ -18262,7 +18262,7 @@
         <v>59</v>
       </c>
       <c r="C325">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D325">
         <f>MID(B325,5,2)</f>
@@ -18307,7 +18307,7 @@
         <v>62</v>
       </c>
       <c r="C328">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D328">
         <f>MID(B328,5,2)</f>
@@ -18322,7 +18322,7 @@
         <v>63</v>
       </c>
       <c r="C329">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D329">
         <f>MID(B329,5,2)</f>
@@ -18352,7 +18352,7 @@
         <v>65</v>
       </c>
       <c r="C331">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D331">
         <f>MID(B331,5,2)</f>
@@ -18367,7 +18367,7 @@
         <v>66</v>
       </c>
       <c r="C332">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D332">
         <f>MID(B332,5,1)</f>
@@ -18382,7 +18382,7 @@
         <v>67</v>
       </c>
       <c r="C333">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D333">
         <f>MID(B333,5,1)</f>
@@ -18442,7 +18442,7 @@
         <v>71</v>
       </c>
       <c r="C337">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D337">
         <f>MID(B337,5,1)</f>
@@ -18487,7 +18487,7 @@
         <v>74</v>
       </c>
       <c r="C340">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D340">
         <f>MID(B340,5,1)</f>
@@ -18532,7 +18532,7 @@
         <v>77</v>
       </c>
       <c r="C343">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D343">
         <f>MID(B343,5,2)</f>
@@ -18547,7 +18547,7 @@
         <v>78</v>
       </c>
       <c r="C344">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D344">
         <f>MID(B344,5,2)</f>
@@ -18562,7 +18562,7 @@
         <v>79</v>
       </c>
       <c r="C345">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D345">
         <f>MID(B345,5,2)</f>
@@ -18607,7 +18607,7 @@
         <v>82</v>
       </c>
       <c r="C348">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D348">
         <f>MID(B348,5,2)</f>
@@ -18622,7 +18622,7 @@
         <v>83</v>
       </c>
       <c r="C349">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D349">
         <f>MID(B349,5,2)</f>
@@ -18637,7 +18637,7 @@
         <v>84</v>
       </c>
       <c r="C350">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D350">
         <f>MID(B350,5,2)</f>
@@ -18652,7 +18652,7 @@
         <v>85</v>
       </c>
       <c r="C351">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D351">
         <f>MID(B351,5,2)</f>
@@ -18667,7 +18667,7 @@
         <v>86</v>
       </c>
       <c r="C352">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D352">
         <f>MID(B352,5,2)</f>
@@ -18697,7 +18697,7 @@
         <v>88</v>
       </c>
       <c r="C354">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D354">
         <f>MID(B354,5,2)</f>
@@ -18712,7 +18712,7 @@
         <v>89</v>
       </c>
       <c r="C355">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D355">
         <f>MID(B355,5,2)</f>
@@ -18727,7 +18727,7 @@
         <v>90</v>
       </c>
       <c r="C356">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D356">
         <f>MID(B356,5,2)</f>
@@ -18742,7 +18742,7 @@
         <v>91</v>
       </c>
       <c r="C357">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D357">
         <f>MID(B357,5,2)</f>
@@ -18757,7 +18757,7 @@
         <v>92</v>
       </c>
       <c r="C358">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D358">
         <f>MID(B358,5,2)</f>
@@ -18787,7 +18787,7 @@
         <v>94</v>
       </c>
       <c r="C360">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D360">
         <f>MID(B360,5,2)</f>
